--- a/Source_Data/Ecoli_Growth_and_Metabolites.xlsx
+++ b/Source_Data/Ecoli_Growth_and_Metabolites.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardlaw/Documents/UCLA/Park Lab/ED_EMP_Glycolysis/Writing/Final/Github/Source_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE5CFB1-574C-DC48-99F0-CAF6D73ED930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B432D21-3675-7342-9F0E-9454CDD85F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36840" windowHeight="21140" xr2:uid="{B7B2D3E0-C8D4-5D48-A809-90FF72797CB8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24500" windowHeight="28300" activeTab="2" xr2:uid="{B7B2D3E0-C8D4-5D48-A809-90FF72797CB8}"/>
   </bookViews>
   <sheets>
     <sheet name="1d" sheetId="1" r:id="rId1"/>
     <sheet name="1e" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
-    <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="Ext.2" sheetId="5" r:id="rId4"/>
+    <sheet name="3a" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>Glucose + Ammonia</t>
   </si>
@@ -170,6 +171,18 @@
   </si>
   <si>
     <t>Time (min.)</t>
+  </si>
+  <si>
+    <t>Succinate to Glucose</t>
+  </si>
+  <si>
+    <t>Glycerol to Glucose</t>
+  </si>
+  <si>
+    <t>Mannose to Glucose</t>
+  </si>
+  <si>
+    <t>Acetate to Succinate</t>
   </si>
 </sst>
 </file>
@@ -561,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9680968D-9C14-1D4C-837C-98672CFC7486}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFC6460-7053-9049-B2C6-9F60BA59F79E}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,13 +760,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>91894.19</v>
+        <v>0.2328763794814491</v>
       </c>
       <c r="C2" s="3">
-        <v>98.679230000000004</v>
+        <v>4.5657047768429094E-4</v>
       </c>
       <c r="D2" s="3">
-        <v>25505.22</v>
+        <v>0.11800791796655619</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -769,13 +782,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>31188.51</v>
+        <v>0.18812184690290296</v>
       </c>
       <c r="C3" s="3">
-        <v>260.18009999999998</v>
+        <v>1.2038050209851308E-3</v>
       </c>
       <c r="D3" s="3">
-        <v>13836.74</v>
+        <v>6.4020027227546614E-2</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -791,13 +804,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>18194.87</v>
+        <v>0.23612253272050571</v>
       </c>
       <c r="C4" s="3">
-        <v>826.79</v>
+        <v>3.825403838726699E-3</v>
       </c>
       <c r="D4" s="3">
-        <v>8169.14</v>
+        <v>3.779709420178743E-2</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -813,13 +826,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>8641727</v>
+        <v>40.195044451974532</v>
       </c>
       <c r="C5" s="3">
-        <v>208814.2</v>
+        <v>0.97125216420323179</v>
       </c>
       <c r="D5" s="3">
-        <v>3183693</v>
+        <v>14.808230074433059</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -835,13 +848,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>6490438</v>
+        <v>30.188808778937901</v>
       </c>
       <c r="C6" s="3">
-        <v>204601.5</v>
+        <v>0.95165774010688697</v>
       </c>
       <c r="D6" s="3">
-        <v>3535539</v>
+        <v>16.444762403011527</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -857,13 +870,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>6995256</v>
+        <v>32.536855870700563</v>
       </c>
       <c r="C7" s="3">
-        <v>242191.8</v>
+        <v>1.1265005440352056</v>
       </c>
       <c r="D7" s="3">
-        <v>2846926</v>
+        <v>13.241834314076581</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -883,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DE05FE-1742-3742-8C3C-1177FB51B878}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,40 +950,40 @@
         <v>-28</v>
       </c>
       <c r="B3" s="1">
-        <v>0.27900000000000003</v>
+        <v>0.27944999999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3974254958718162E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>0.23300000000000001</v>
+        <v>0.23279565586471596</v>
       </c>
       <c r="E3" s="1">
-        <v>2E-3</v>
+        <v>1.7266850687185618E-3</v>
       </c>
       <c r="F3" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.23840242087884178</v>
       </c>
       <c r="G3" s="1">
-        <v>0.02</v>
+        <v>0.25899430896078846</v>
       </c>
       <c r="H3" s="1">
-        <v>0.25900000000000001</v>
+        <v>2.0184670892172643E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>1.6E-2</v>
+        <v>1.5557133561415236E-2</v>
       </c>
       <c r="J3" s="1">
-        <v>-3.5999999999999997E-2</v>
+        <v>-3.5540162134517495E-2</v>
       </c>
       <c r="K3" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.778218649938906E-2</v>
       </c>
       <c r="L3" s="1">
-        <v>-1.9E-2</v>
+        <v>-1.8552896982678702E-2</v>
       </c>
       <c r="M3" s="1">
-        <v>1.9E-2</v>
+        <v>1.8552896982678705E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -978,40 +991,40 @@
         <v>-26</v>
       </c>
       <c r="B4" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.2754000000000012</v>
       </c>
       <c r="C4" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4307472978378695E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>0.24399999999999999</v>
+        <v>0.24444651672457796</v>
       </c>
       <c r="E4" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.8528170081509025E-3</v>
       </c>
       <c r="F4" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.23840242087884178</v>
       </c>
       <c r="G4" s="1">
-        <v>0.02</v>
+        <v>0.25899430896078846</v>
       </c>
       <c r="H4" s="1">
-        <v>0.25900000000000001</v>
+        <v>2.0184670892172643E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>1.6E-2</v>
+        <v>1.5557133561415236E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>-1.9E-2</v>
+        <v>-1.8975354842758474E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>1.9E-2</v>
+        <v>1.8975354842758477E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>-1.9E-2</v>
+        <v>-1.9493202078286753E-2</v>
       </c>
       <c r="M4" s="1">
-        <v>1.9E-2</v>
+        <v>1.9493202078286757E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1019,40 +1032,40 @@
         <v>-24</v>
       </c>
       <c r="B5" s="1">
-        <v>0.254</v>
+        <v>0.2538000000000018</v>
       </c>
       <c r="C5" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.86749422187625E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.27100000000000002</v>
+        <v>0.27134441707842072</v>
       </c>
       <c r="E5" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.9837123640179924E-3</v>
       </c>
       <c r="F5" s="1">
-        <v>0.254</v>
+        <v>0.2541818101297344</v>
       </c>
       <c r="G5" s="1">
-        <v>2.3E-2</v>
+        <v>0.26670411560449941</v>
       </c>
       <c r="H5" s="1">
-        <v>0.26700000000000002</v>
+        <v>2.3289790540544961E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.131960436253655E-2</v>
       </c>
       <c r="J5" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6564807291759021E-2</v>
       </c>
       <c r="K5" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6751291620557909E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>-7.3999999999999996E-2</v>
+        <v>-7.4478994178597269E-2</v>
       </c>
       <c r="M5" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.732263651283001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1060,40 +1073,40 @@
         <v>-22</v>
       </c>
       <c r="B6" s="1">
-        <v>0.26100000000000001</v>
+        <v>0.26145000000000085</v>
       </c>
       <c r="C6" s="1">
-        <v>1.4E-2</v>
+        <v>1.3730531672153073E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.28699999999999998</v>
+        <v>0.28656140414814124</v>
       </c>
       <c r="E6" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5291069817317048E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>0.26800000000000002</v>
+        <v>0.26813353422672276</v>
       </c>
       <c r="G6" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0.25339554969368544</v>
       </c>
       <c r="H6" s="1">
-        <v>0.253</v>
+        <v>1.8037411540723317E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.4302552938121857E-3</v>
       </c>
       <c r="J6" s="1">
-        <v>-1.7999999999999999E-2</v>
+        <v>-1.8148840252892873E-2</v>
       </c>
       <c r="K6" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8148840252892873E-2</v>
       </c>
       <c r="L6" s="1">
-        <v>1E-3</v>
+        <v>9.4030509560805164E-4</v>
       </c>
       <c r="M6" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>3.295224246900056E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1101,34 +1114,34 @@
         <v>-20</v>
       </c>
       <c r="B7" s="1">
-        <v>0.255</v>
+        <v>0.25515000000000065</v>
       </c>
       <c r="C7" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7410987909937149E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.27675751993259001</v>
       </c>
       <c r="E7" s="1">
-        <v>1.6E-2</v>
+        <v>1.6370672671894876E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>0.27</v>
+        <v>0.26953007054850886</v>
       </c>
       <c r="G7" s="1">
-        <v>1.2E-2</v>
+        <v>0.24864148138781572</v>
       </c>
       <c r="H7" s="1">
-        <v>0.249</v>
+        <v>1.2447359060433089E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.0603053533084001E-3</v>
       </c>
       <c r="J7" s="1">
-        <v>-5.5E-2</v>
+        <v>-5.4645352660951385E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>5.5E-2</v>
+        <v>5.4645352660951392E-2</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1142,40 +1155,40 @@
         <v>-18</v>
       </c>
       <c r="B8" s="1">
-        <v>0.26100000000000001</v>
+        <v>0.2605500000000005</v>
       </c>
       <c r="C8" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2543623878288734E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>0.26700000000000002</v>
+        <v>0.26733321714636937</v>
       </c>
       <c r="E8" s="1">
-        <v>1.6E-2</v>
+        <v>1.6216634088182264E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>0.25</v>
+        <v>0.24960482361451242</v>
       </c>
       <c r="G8" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.22388963039967277</v>
       </c>
       <c r="H8" s="1">
-        <v>0.224</v>
+        <v>9.497957699186035E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4523278754716012E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>-1.7000000000000001E-2</v>
+        <v>-1.7391321881624622E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7391321881624625E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>-5.8000000000000003E-2</v>
+        <v>-5.7684694138879777E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3841509213505837E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1183,40 +1196,40 @@
         <v>-16</v>
       </c>
       <c r="B9" s="1">
-        <v>0.28499999999999998</v>
+        <v>0.28529999999999944</v>
       </c>
       <c r="C9" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.6289139381954729E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>0.254</v>
+        <v>0.25387676106127577</v>
       </c>
       <c r="E9" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2597442156483177E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>0.25900000000000001</v>
+        <v>0.25852536518373587</v>
       </c>
       <c r="G9" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.25440818539260407</v>
       </c>
       <c r="H9" s="1">
-        <v>0.254</v>
+        <v>1.5308834571894765E-2</v>
       </c>
       <c r="I9" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0907555929868711E-2</v>
       </c>
       <c r="J9" s="1">
-        <v>1E-3</v>
+        <v>8.9023413392785855E-4</v>
       </c>
       <c r="K9" s="1">
-        <v>3.1E-2</v>
+        <v>3.0896824955057803E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>3.4043943935913035E-4</v>
       </c>
       <c r="M9" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>3.1959866365535106E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1224,40 +1237,40 @@
         <v>-14</v>
       </c>
       <c r="B10" s="1">
-        <v>0.28899999999999998</v>
+        <v>0.28890000000000082</v>
       </c>
       <c r="C10" s="1">
-        <v>1.6E-2</v>
+        <v>1.6105977151356123E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>0.24</v>
+        <v>0.23957282327978113</v>
       </c>
       <c r="E10" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.7398155389733378E-3</v>
       </c>
       <c r="F10" s="1">
-        <v>0.26100000000000001</v>
+        <v>0.26142179278597671</v>
       </c>
       <c r="G10" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0.22938529483373638</v>
       </c>
       <c r="H10" s="1">
-        <v>0.22900000000000001</v>
+        <v>2.6420672170168746E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8340742011646361E-2</v>
       </c>
       <c r="J10" s="1">
-        <v>-3.6999999999999998E-2</v>
+        <v>-3.7262598475844566E-2</v>
       </c>
       <c r="K10" s="1">
-        <v>1.9E-2</v>
+        <v>1.8645249673517151E-2</v>
       </c>
       <c r="L10" s="1">
-        <v>1.9E-2</v>
+        <v>1.8621995454911611E-2</v>
       </c>
       <c r="M10" s="1">
-        <v>1.9E-2</v>
+        <v>1.8621995454911614E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1265,40 +1278,40 @@
         <v>-12</v>
       </c>
       <c r="B11" s="1">
-        <v>0.27200000000000002</v>
+        <v>0.27225000000000055</v>
       </c>
       <c r="C11" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.2420646227436929E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>0.249</v>
+        <v>0.24939547998682254</v>
       </c>
       <c r="E11" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.0561157709035136E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>0.26</v>
+        <v>0.25965440316508048</v>
       </c>
       <c r="G11" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>0.22532366015075292</v>
       </c>
       <c r="H11" s="1">
-        <v>0.22500000000000001</v>
+        <v>2.0546029613165432E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5206131049019099E-2</v>
       </c>
       <c r="J11" s="1">
-        <v>-1E-3</v>
+        <v>-8.9023413392785855E-4</v>
       </c>
       <c r="K11" s="1">
-        <v>3.1E-2</v>
+        <v>3.0896824955057803E-2</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>-3.4043943935913035E-4</v>
       </c>
       <c r="M11" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>3.1959866365535106E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1306,28 +1319,28 @@
         <v>-10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.26500000000000001</v>
+        <v>0.26459999999999928</v>
       </c>
       <c r="C12" s="1">
-        <v>0.02</v>
+        <v>1.9671743694954981E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.27200000000000002</v>
+        <v>0.2718474357531786</v>
       </c>
       <c r="E12" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.9097363333627971E-3</v>
       </c>
       <c r="F12" s="1">
-        <v>0.26300000000000001</v>
+        <v>0.26268527410487824</v>
       </c>
       <c r="G12" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.24181719647600855</v>
       </c>
       <c r="H12" s="1">
-        <v>0.24199999999999999</v>
+        <v>4.808815744563608E-3</v>
       </c>
       <c r="I12" s="1">
-        <v>1.4E-2</v>
+        <v>1.4481140605306291E-2</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1336,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>-1.9E-2</v>
+        <v>-1.8621995454911611E-2</v>
       </c>
       <c r="M12" s="1">
-        <v>1.9E-2</v>
+        <v>1.8621995454911614E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1347,40 +1360,40 @@
         <v>-8</v>
       </c>
       <c r="B13" s="1">
-        <v>0.25700000000000001</v>
+        <v>0.25739999999999985</v>
       </c>
       <c r="C13" s="1">
-        <v>1.4E-2</v>
+        <v>1.3730531672152671E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>0.30599999999999999</v>
+        <v>0.30641498555611157</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02</v>
+        <v>1.9639308784464998E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>0.26400000000000001</v>
+        <v>0.26410172770255674</v>
       </c>
       <c r="G13" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.25347205790149357</v>
       </c>
       <c r="H13" s="1">
-        <v>0.253</v>
+        <v>4.9648713636019238E-3</v>
       </c>
       <c r="I13" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1198412294656084E-2</v>
       </c>
       <c r="J13" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4602214222868577E-2</v>
       </c>
       <c r="K13" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4602214222868577E-2</v>
       </c>
       <c r="L13" s="1">
-        <v>-3.6999999999999998E-2</v>
+        <v>-3.6630200460364692E-2</v>
       </c>
       <c r="M13" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6630200460364692E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1388,40 +1401,40 @@
         <v>-6</v>
       </c>
       <c r="B14" s="1">
-        <v>0.247</v>
+        <v>0.24749999999999939</v>
       </c>
       <c r="C14" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.5146123541569254E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>0.29599999999999999</v>
+        <v>0.29553196763004719</v>
       </c>
       <c r="E14" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7551532017144409E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>0.23699999999999999</v>
+        <v>0.23662073592359811</v>
       </c>
       <c r="G14" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.23413392560570312</v>
       </c>
       <c r="H14" s="1">
-        <v>0.23400000000000001</v>
+        <v>9.4545706700252235E-3</v>
       </c>
       <c r="I14" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5766848023951086E-2</v>
       </c>
       <c r="J14" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6438963964963156E-2</v>
       </c>
       <c r="K14" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8275860340020249E-2</v>
       </c>
       <c r="L14" s="1">
-        <v>0.02</v>
+        <v>1.9569496605681413E-2</v>
       </c>
       <c r="M14" s="1">
-        <v>0.02</v>
+        <v>1.9569496605681417E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1429,40 +1442,40 @@
         <v>-4</v>
       </c>
       <c r="B15" s="1">
-        <v>0.26500000000000001</v>
+        <v>0.26459999999999928</v>
       </c>
       <c r="C15" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1864771881898484E-3</v>
       </c>
       <c r="D15" s="1">
-        <v>0.25900000000000001</v>
+        <v>0.25892445911023909</v>
       </c>
       <c r="E15" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.086699777164815E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>0.23699999999999999</v>
+        <v>0.23662073592359811</v>
       </c>
       <c r="G15" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.23413392560570312</v>
       </c>
       <c r="H15" s="1">
-        <v>0.23400000000000001</v>
+        <v>9.4545706700252235E-3</v>
       </c>
       <c r="I15" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5766848023951086E-2</v>
       </c>
       <c r="J15" s="1">
-        <v>1E-3</v>
+        <v>1.0103816751150241E-3</v>
       </c>
       <c r="K15" s="1">
-        <v>3.1E-2</v>
+        <v>3.0793711932903579E-2</v>
       </c>
       <c r="L15" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7938589907329217E-2</v>
       </c>
       <c r="M15" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8742438719432235E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1470,40 +1483,40 @@
         <v>-2</v>
       </c>
       <c r="B16" s="1">
-        <v>0.27200000000000002</v>
+        <v>0.27179999999999871</v>
       </c>
       <c r="C16" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.4079349349189154E-3</v>
       </c>
       <c r="D16" s="1">
-        <v>0.29499999999999998</v>
+        <v>0.29493833587136531</v>
       </c>
       <c r="E16" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.4919274255499961E-3</v>
       </c>
       <c r="F16" s="1">
-        <v>0.22800000000000001</v>
+        <v>0.22828750441039625</v>
       </c>
       <c r="G16" s="1">
-        <v>1.6E-2</v>
+        <v>0.26246621163004669</v>
       </c>
       <c r="H16" s="1">
-        <v>0.26200000000000001</v>
+        <v>1.6166401727937485E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>0.03</v>
+        <v>3.0477620887487868E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4662079764862241E-2</v>
       </c>
       <c r="K16" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4662079764862241E-2</v>
       </c>
       <c r="L16" s="1">
-        <v>-3.6999999999999998E-2</v>
+        <v>-3.7383221106070952E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7383221106070959E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1511,40 +1524,40 @@
         <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>0.26500000000000001</v>
+        <v>0.26531999999999889</v>
       </c>
       <c r="C17" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.2438209455421001E-3</v>
       </c>
       <c r="D17" s="1">
-        <v>0.28100000000000003</v>
+        <v>0.28074499474250802</v>
       </c>
       <c r="E17" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1911409616546105E-3</v>
       </c>
       <c r="F17" s="1">
-        <v>0.23400000000000001</v>
+        <v>0.23414921711775616</v>
       </c>
       <c r="G17" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.22330528632332314</v>
       </c>
       <c r="H17" s="1">
-        <v>0.223</v>
+        <v>8.9610932540791464E-3</v>
       </c>
       <c r="I17" s="1">
-        <v>0.02</v>
+        <v>1.9659779318027818E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>0.01</v>
+        <v>1.0410680329297373E-2</v>
       </c>
       <c r="K17" s="1">
-        <v>0.01</v>
+        <v>1.0410680329297373E-2</v>
       </c>
       <c r="L17" s="1">
-        <v>-4.0000000000000001E-3</v>
+        <v>-3.5627449000779077E-3</v>
       </c>
       <c r="M17" s="1">
-        <v>0.01</v>
+        <v>1.0024053543771321E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1552,40 +1565,40 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>0.40600000000000003</v>
+        <v>0.40602329358945477</v>
       </c>
       <c r="C18" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5729455001262998E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>0.32500000000000001</v>
+        <v>0.32518825321974032</v>
       </c>
       <c r="E18" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.328718661445674E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>0.23200000000000001</v>
+        <v>0.23162348457552717</v>
       </c>
       <c r="G18" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.25379708238393639</v>
       </c>
       <c r="H18" s="1">
-        <v>0.254</v>
+        <v>4.2288767653466189E-2</v>
       </c>
       <c r="I18" s="1">
-        <v>1.9E-2</v>
+        <v>1.8603752733598412E-2</v>
       </c>
       <c r="J18" s="1">
-        <v>0.48799999999999999</v>
+        <v>0.48769984838080704</v>
       </c>
       <c r="K18" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2773786984531631E-2</v>
       </c>
       <c r="L18" s="1">
-        <v>0.377</v>
+        <v>0.37655358806309658</v>
       </c>
       <c r="M18" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5019366530047349E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1593,40 +1606,40 @@
         <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>0.46700000000000003</v>
+        <v>0.46710378525187868</v>
       </c>
       <c r="C19" s="1">
-        <v>1E-3</v>
+        <v>9.8279627014104276E-4</v>
       </c>
       <c r="D19" s="1">
-        <v>0.33600000000000002</v>
+        <v>0.33584159708868477</v>
       </c>
       <c r="E19" s="1">
-        <v>1.6E-2</v>
+        <v>1.5545542135426933E-2</v>
       </c>
       <c r="F19" s="1">
-        <v>0.32</v>
+        <v>0.32004162051062068</v>
       </c>
       <c r="G19" s="1">
-        <v>0.05</v>
+        <v>0.35909624230097137</v>
       </c>
       <c r="H19" s="1">
-        <v>0.35899999999999999</v>
+        <v>4.9765030016151353E-2</v>
       </c>
       <c r="I19" s="1">
-        <v>1.4E-2</v>
+        <v>1.3968018457316638E-2</v>
       </c>
       <c r="J19" s="1">
-        <v>0.58399999999999996</v>
+        <v>0.58356918201093699</v>
       </c>
       <c r="K19" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7143624024370731E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>0.45800000000000002</v>
+        <v>0.45847931073974491</v>
       </c>
       <c r="M19" s="1">
-        <v>1.9E-2</v>
+        <v>1.8750390559962804E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1634,40 +1647,40 @@
         <v>6</v>
       </c>
       <c r="B20" s="1">
-        <v>0.499</v>
+        <v>0.49867596727364338</v>
       </c>
       <c r="C20" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.2319429255824412E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>0.373</v>
+        <v>0.37334333483896631</v>
       </c>
       <c r="E20" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.9870897751783582E-3</v>
       </c>
       <c r="F20" s="1">
-        <v>0.41299999999999998</v>
+        <v>0.41314771278220785</v>
       </c>
       <c r="G20" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>0.39582539330787392</v>
       </c>
       <c r="H20" s="1">
-        <v>0.39600000000000002</v>
+        <v>2.8078563981735267E-2</v>
       </c>
       <c r="I20" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5169590244386179E-2</v>
       </c>
       <c r="J20" s="1">
-        <v>0.63300000000000001</v>
+        <v>0.63262888332992362</v>
       </c>
       <c r="K20" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.3438934261770639E-3</v>
       </c>
       <c r="L20" s="1">
-        <v>0.55200000000000005</v>
+        <v>0.55155197966458491</v>
       </c>
       <c r="M20" s="1">
-        <v>0.01</v>
+        <v>1.0182733739274566E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1675,40 +1688,40 @@
         <v>8</v>
       </c>
       <c r="B21" s="1">
-        <v>0.53</v>
+        <v>0.53029925920840459</v>
       </c>
       <c r="C21" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4816640194875065E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>0.39900000000000002</v>
+        <v>0.39909042421048735</v>
       </c>
       <c r="E21" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4980882042144818E-2</v>
       </c>
       <c r="F21" s="1">
-        <v>0.55800000000000005</v>
+        <v>0.55810167147781775</v>
       </c>
       <c r="G21" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>0.46071606122414188</v>
       </c>
       <c r="H21" s="1">
-        <v>0.46100000000000002</v>
+        <v>3.6618714982878227E-2</v>
       </c>
       <c r="I21" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6146498152888028E-2</v>
       </c>
       <c r="J21" s="1">
-        <v>0.63700000000000001</v>
+        <v>0.63728489978858271</v>
       </c>
       <c r="K21" s="1">
-        <v>2E-3</v>
+        <v>2.0716147509560563E-3</v>
       </c>
       <c r="L21" s="1">
-        <v>0.60499999999999998</v>
+        <v>0.60496928963298746</v>
       </c>
       <c r="M21" s="1">
-        <v>3.1E-2</v>
+        <v>3.0520747136550008E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1716,40 +1729,40 @@
         <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>0.54400000000000004</v>
+        <v>0.54389621926707821</v>
       </c>
       <c r="C22" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.5657170411225225E-3</v>
       </c>
       <c r="D22" s="1">
-        <v>0.46300000000000002</v>
+        <v>0.46265138286389074</v>
       </c>
       <c r="E22" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1449489071462359E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>0.65800000000000003</v>
+        <v>0.65776465750180346</v>
       </c>
       <c r="G22" s="1">
-        <v>2.3E-2</v>
+        <v>0.50463756889128608</v>
       </c>
       <c r="H22" s="1">
-        <v>0.505</v>
+        <v>2.3360106573255768E-2</v>
       </c>
       <c r="I22" s="1">
-        <v>2.4E-2</v>
+        <v>2.3868991409607496E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>0.67200000000000004</v>
+        <v>0.6716964960427726</v>
       </c>
       <c r="K22" s="1">
-        <v>1.9E-2</v>
+        <v>1.9232610380546501E-2</v>
       </c>
       <c r="L22" s="1">
-        <v>0.73899999999999999</v>
+        <v>0.73885121962975242</v>
       </c>
       <c r="M22" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8228199076286983E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1757,40 +1770,40 @@
         <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>0.55500000000000005</v>
+        <v>0.55529078737350646</v>
       </c>
       <c r="C23" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.829698440440326E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.54074700458209368</v>
       </c>
       <c r="E23" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8137547188432619E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>0.66800000000000004</v>
+        <v>0.66835621522441835</v>
       </c>
       <c r="G23" s="1">
-        <v>1.2E-2</v>
+        <v>0.52538284120251566</v>
       </c>
       <c r="H23" s="1">
-        <v>0.52500000000000002</v>
+        <v>1.2329332471312411E-2</v>
       </c>
       <c r="I23" s="1">
-        <v>1.4E-2</v>
+        <v>1.4022682806000032E-2</v>
       </c>
       <c r="J23" s="1">
-        <v>0.72099999999999997</v>
+        <v>0.72059938146602087</v>
       </c>
       <c r="K23" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.33900928171754E-2</v>
       </c>
       <c r="L23" s="1">
-        <v>0.82299999999999995</v>
+        <v>0.82297218765622082</v>
       </c>
       <c r="M23" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3081765000948837E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1798,40 +1811,40 @@
         <v>14</v>
       </c>
       <c r="B24" s="1">
-        <v>0.59399999999999997</v>
+        <v>0.59393477964234043</v>
       </c>
       <c r="C24" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.3756094763680613E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>0.57599999999999996</v>
+        <v>0.57638527258966477</v>
       </c>
       <c r="E24" s="1">
-        <v>2.4E-2</v>
+        <v>2.386371178710869E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>0.65400000000000003</v>
+        <v>0.65405802148185255</v>
       </c>
       <c r="G24" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.58324404380320782</v>
       </c>
       <c r="H24" s="1">
-        <v>0.58299999999999996</v>
+        <v>1.0506655251251535E-2</v>
       </c>
       <c r="I24" s="1">
-        <v>1.9E-2</v>
+        <v>1.9203069337084315E-2</v>
       </c>
       <c r="J24" s="1">
-        <v>0.76</v>
+        <v>0.75982988238273153</v>
       </c>
       <c r="K24" s="1">
-        <v>2.4E-2</v>
+        <v>2.3847550214379318E-2</v>
       </c>
       <c r="L24" s="1">
-        <v>0.86</v>
+        <v>0.85993214121398465</v>
       </c>
       <c r="M24" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7735439997234011E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1839,40 +1852,40 @@
         <v>16</v>
       </c>
       <c r="B25" s="1">
-        <v>0.59799999999999998</v>
+        <v>0.59833273190884295</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.0960445882954516E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>0.59899999999999998</v>
+        <v>0.59933079356920138</v>
       </c>
       <c r="E25" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3088856061462779E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>0.63700000000000001</v>
+        <v>0.63671654535840272</v>
       </c>
       <c r="G25" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.5660751412047984</v>
       </c>
       <c r="H25" s="1">
-        <v>0.56599999999999995</v>
+        <v>2.5272991044554761E-2</v>
       </c>
       <c r="I25" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.2084794932997288E-2</v>
       </c>
       <c r="J25" s="1">
-        <v>0.77</v>
+        <v>0.76964831246580478</v>
       </c>
       <c r="K25" s="1">
-        <v>1.9E-2</v>
+        <v>1.9247260615308685E-2</v>
       </c>
       <c r="L25" s="1">
-        <v>0.85299999999999998</v>
+        <v>0.85333914097576835</v>
       </c>
       <c r="M25" s="1">
-        <v>0.04</v>
+        <v>4.0019621588858884E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1880,40 +1893,40 @@
         <v>18</v>
       </c>
       <c r="B26" s="1">
-        <v>0.625</v>
+        <v>0.62537282233313474</v>
       </c>
       <c r="C26" s="1">
-        <v>1.2E-2</v>
+        <v>1.2042136012540897E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.60099999999999998</v>
+        <v>0.60080297450943165</v>
       </c>
       <c r="E26" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5473061140512595E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>0.66800000000000004</v>
+        <v>0.66799671849513187</v>
       </c>
       <c r="G26" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0.5431251692961927</v>
       </c>
       <c r="H26" s="1">
-        <v>0.54300000000000004</v>
+        <v>2.5619534321780761E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>2.911879565906288E-2</v>
       </c>
       <c r="J26" s="1">
-        <v>0.78600000000000003</v>
+        <v>0.7858933044436297</v>
       </c>
       <c r="K26" s="1">
-        <v>1.4E-2</v>
+        <v>1.4217984900384381E-2</v>
       </c>
       <c r="L26" s="1">
-        <v>0.80200000000000005</v>
+        <v>0.80186372049667065</v>
       </c>
       <c r="M26" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4547937009347046E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1921,40 +1934,40 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>0.59799999999999998</v>
+        <v>0.59795738061070014</v>
       </c>
       <c r="C27" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.0053923209598828E-3</v>
       </c>
       <c r="D27" s="1">
-        <v>0.58899999999999997</v>
+        <v>0.5894672437304882</v>
       </c>
       <c r="E27" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>5.1492670023429013E-2</v>
       </c>
       <c r="F27" s="1">
-        <v>0.71299999999999997</v>
+        <v>0.71343009205988539</v>
       </c>
       <c r="G27" s="1">
-        <v>1.4E-2</v>
+        <v>0.56896386685450007</v>
       </c>
       <c r="H27" s="1">
-        <v>0.56899999999999995</v>
+        <v>1.3625061003385832E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5673660046770255E-2</v>
       </c>
       <c r="J27" s="1">
-        <v>0.80700000000000005</v>
+        <v>0.80676067152574615</v>
       </c>
       <c r="K27" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.9540061438876418E-3</v>
       </c>
       <c r="L27" s="1">
-        <v>0.80600000000000005</v>
+        <v>0.80554152658741307</v>
       </c>
       <c r="M27" s="1">
-        <v>1.4E-2</v>
+        <v>1.3570277854925126E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1962,40 +1975,40 @@
         <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>0.57699999999999996</v>
+        <v>0.57687725091297293</v>
       </c>
       <c r="C28" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2739904410158511E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.59</v>
+        <v>0.59047530606573662</v>
       </c>
       <c r="E28" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3752906932631117E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>0.747</v>
+        <v>0.74689584275216314</v>
       </c>
       <c r="G28" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0.58503069225256965</v>
       </c>
       <c r="H28" s="1">
-        <v>0.58499999999999996</v>
+        <v>6.035278186573876E-3</v>
       </c>
       <c r="I28" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.9383329824826831E-3</v>
       </c>
       <c r="J28" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.83491783400919095</v>
       </c>
       <c r="K28" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.2368062864233382E-3</v>
       </c>
       <c r="L28" s="1">
-        <v>0.79400000000000004</v>
+        <v>0.79444827750712255</v>
       </c>
       <c r="M28" s="1">
-        <v>1.9E-2</v>
+        <v>1.8640013929217845E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2003,40 +2016,40 @@
         <v>24</v>
       </c>
       <c r="B29" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.57007022975032107</v>
       </c>
       <c r="C29" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.0115323554091838E-3</v>
       </c>
       <c r="D29" s="1">
-        <v>0.59099999999999997</v>
+        <v>0.59136103392403361</v>
       </c>
       <c r="E29" s="1">
-        <v>3.1E-2</v>
+        <v>3.0917404700050204E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>0.70299999999999996</v>
+        <v>0.70256898434149884</v>
       </c>
       <c r="G29" s="1">
-        <v>2E-3</v>
+        <v>0.58832587239389045</v>
       </c>
       <c r="H29" s="1">
-        <v>0.58799999999999997</v>
+        <v>1.7466967905689244E-3</v>
       </c>
       <c r="I29" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8469241818698127E-2</v>
       </c>
       <c r="J29" s="1">
-        <v>0.85099999999999998</v>
+        <v>0.85117592976456591</v>
       </c>
       <c r="K29" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3463282305188977E-2</v>
       </c>
       <c r="L29" s="1">
-        <v>0.83799999999999997</v>
+        <v>0.83836194676226461</v>
       </c>
       <c r="M29" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>3.2974370610645898E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2044,40 +2057,40 @@
         <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>0.57499999999999996</v>
+        <v>0.57498539385373204</v>
       </c>
       <c r="C30" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4529045017410443E-3</v>
       </c>
       <c r="D30" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.56360868970002209</v>
       </c>
       <c r="E30" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.527993837172922E-2</v>
       </c>
       <c r="F30" s="1">
-        <v>0.70699999999999996</v>
+        <v>0.70667236955856882</v>
       </c>
       <c r="G30" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.59571842226060223</v>
       </c>
       <c r="H30" s="1">
-        <v>0.59599999999999997</v>
+        <v>1.4975486902572671E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>1.4E-2</v>
+        <v>1.4036413284730966E-2</v>
       </c>
       <c r="J30" s="1">
-        <v>0.872</v>
+        <v>0.87195982100540181</v>
       </c>
       <c r="K30" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2515510345952319E-2</v>
       </c>
       <c r="L30" s="1">
-        <v>0.85199999999999998</v>
+        <v>0.85150660300318426</v>
       </c>
       <c r="M30" s="1">
-        <v>2.3E-2</v>
+        <v>2.2567912906089733E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2085,40 +2098,40 @@
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.60714697221527114</v>
       </c>
       <c r="C31" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4276131308986361E-3</v>
       </c>
       <c r="D31" s="1">
-        <v>0.58199999999999996</v>
+        <v>0.58217881135017557</v>
       </c>
       <c r="E31" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.525088789122736E-3</v>
       </c>
       <c r="F31" s="1">
-        <v>0.72699999999999998</v>
+        <v>0.72676190569752774</v>
       </c>
       <c r="G31" s="1">
-        <v>2.7E-2</v>
+        <v>0.62174226455115611</v>
       </c>
       <c r="H31" s="1">
-        <v>0.622</v>
+        <v>2.7381558413197265E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>9.0384991335538262E-3</v>
       </c>
       <c r="J31" s="1">
-        <v>0.88400000000000001</v>
+        <v>0.88395289747491257</v>
       </c>
       <c r="K31" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4878555580320025E-2</v>
       </c>
       <c r="L31" s="1">
-        <v>0.84399999999999997</v>
+        <v>0.84416727960002691</v>
       </c>
       <c r="M31" s="1">
-        <v>2E-3</v>
+        <v>1.6275662584924406E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -2126,40 +2139,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.61399999999999999</v>
+        <v>0.61376755242074033</v>
       </c>
       <c r="C32" s="1">
-        <v>2E-3</v>
+        <v>2.4825370164355174E-3</v>
       </c>
       <c r="D32" s="1">
-        <v>0.59799999999999998</v>
+        <v>0.59812638493717873</v>
       </c>
       <c r="E32" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.1255698635857516E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>0.746</v>
+        <v>0.74612780553568181</v>
       </c>
       <c r="G32" s="1">
-        <v>1.4E-2</v>
+        <v>0.64659869007733395</v>
       </c>
       <c r="H32" s="1">
-        <v>0.64700000000000002</v>
+        <v>1.3536963314167058E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>1.4E-2</v>
+        <v>1.4270350534013926E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>0.85499999999999998</v>
+        <v>0.85519942833553397</v>
       </c>
       <c r="K32" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.7781014748437441E-3</v>
       </c>
       <c r="L32" s="1">
-        <v>0.85199999999999998</v>
+        <v>0.85230991296431535</v>
       </c>
       <c r="M32" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1798172428462451E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2167,40 +2180,40 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>0.59699999999999998</v>
+        <v>0.59719545380626327</v>
       </c>
       <c r="C33" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.9130900381099971E-3</v>
       </c>
       <c r="D33" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.60745069278810959</v>
       </c>
       <c r="E33" s="1">
-        <v>1.6E-2</v>
+        <v>1.6257761280147064E-2</v>
       </c>
       <c r="F33" s="1">
-        <v>0.77400000000000002</v>
+        <v>0.77391660156067987</v>
       </c>
       <c r="G33" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0.681800938044133</v>
       </c>
       <c r="H33" s="1">
-        <v>0.68200000000000005</v>
+        <v>1.7910645315903688E-2</v>
       </c>
       <c r="I33" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2760604055816962E-2</v>
       </c>
       <c r="J33" s="1">
-        <v>0.86299999999999999</v>
+        <v>0.86284230860604738</v>
       </c>
       <c r="K33" s="1">
-        <v>2E-3</v>
+        <v>1.554396986163835E-3</v>
       </c>
       <c r="L33" s="1">
-        <v>0.83399999999999996</v>
+        <v>0.83399376413393844</v>
       </c>
       <c r="M33" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9399301224993547E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2208,40 +2221,40 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>0.58799999999999997</v>
+        <v>0.58754175756276461</v>
       </c>
       <c r="C34" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2987532154453783E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>0.60399999999999998</v>
+        <v>0.60415766456035969</v>
       </c>
       <c r="E34" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3952657326648573E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>0.73599999999999999</v>
+        <v>0.736431961513763</v>
       </c>
       <c r="G34" s="1">
-        <v>1.2E-2</v>
+        <v>0.63613404865108514</v>
       </c>
       <c r="H34" s="1">
-        <v>0.63600000000000001</v>
+        <v>1.2131631939461485E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>5.6852133405135381E-3</v>
       </c>
       <c r="J34" s="1">
-        <v>0.86799999999999999</v>
+        <v>0.86779170391660132</v>
       </c>
       <c r="K34" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.5768404073768627E-3</v>
       </c>
       <c r="L34" s="1">
-        <v>0.88500000000000001</v>
+        <v>0.88537016407898372</v>
       </c>
       <c r="M34" s="1">
-        <v>1.2E-2</v>
+        <v>1.205357287625883E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2249,40 +2262,40 @@
         <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>0.60399999999999998</v>
+        <v>0.60370497252702005</v>
       </c>
       <c r="C35" s="1">
-        <v>0.01</v>
+        <v>9.6384213420783477E-3</v>
       </c>
       <c r="D35" s="1">
-        <v>0.58699999999999997</v>
+        <v>0.58748505550032093</v>
       </c>
       <c r="E35" s="1">
-        <v>2.3E-2</v>
+        <v>2.257353633034876E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>0.751</v>
+        <v>0.75108072975604789</v>
       </c>
       <c r="G35" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>0.60437773856470356</v>
       </c>
       <c r="H35" s="1">
-        <v>0.60399999999999998</v>
+        <v>4.0614510492813026E-2</v>
       </c>
       <c r="I35" s="1">
-        <v>2E-3</v>
+        <v>1.7440675906098015E-3</v>
       </c>
       <c r="J35" s="1">
-        <v>0.874</v>
+        <v>0.87434100858827346</v>
       </c>
       <c r="K35" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.5700286268908746E-3</v>
       </c>
       <c r="L35" s="1">
-        <v>0.89700000000000002</v>
+        <v>0.89726096268660849</v>
       </c>
       <c r="M35" s="1">
-        <v>1.6E-2</v>
+        <v>1.60257771988403E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2290,40 +2303,40 @@
         <v>38</v>
       </c>
       <c r="B36" s="1">
-        <v>0.61099999999999999</v>
+        <v>0.61109404450859961</v>
       </c>
       <c r="C36" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2743732566718876E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>0.58399999999999996</v>
+        <v>0.5838336356106244</v>
       </c>
       <c r="E36" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7269580079553308E-2</v>
       </c>
       <c r="F36" s="1">
-        <v>0.748</v>
+        <v>0.7475438411485178</v>
       </c>
       <c r="G36" s="1">
-        <v>1.2E-2</v>
+        <v>0.62704528266383797</v>
       </c>
       <c r="H36" s="1">
-        <v>0.627</v>
+        <v>1.1573445490846986E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.5092926142971529E-3</v>
       </c>
       <c r="J36" s="1">
-        <v>0.89200000000000002</v>
+        <v>0.89242308498861</v>
       </c>
       <c r="K36" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>8.1142916261705451E-3</v>
       </c>
       <c r="L36" s="1">
-        <v>0.90200000000000002</v>
+        <v>0.90247677918471114</v>
       </c>
       <c r="M36" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9253719769748138E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2331,40 +2344,40 @@
         <v>40</v>
       </c>
       <c r="B37" s="1">
-        <v>0.62</v>
+        <v>0.62030199121615071</v>
       </c>
       <c r="C37" s="1">
-        <v>1.4E-2</v>
+        <v>1.4005596546372139E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>0.59599999999999997</v>
+        <v>0.59637034946778023</v>
       </c>
       <c r="E37" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2682599998588106E-2</v>
       </c>
       <c r="F37" s="1">
-        <v>0.73799999999999999</v>
+        <v>0.7382012951717476</v>
       </c>
       <c r="G37" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.64426465297485125</v>
       </c>
       <c r="H37" s="1">
-        <v>0.64400000000000002</v>
+        <v>1.3405243760018363E-2</v>
       </c>
       <c r="I37" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>9.2570102750029869E-3</v>
       </c>
       <c r="J37" s="1">
-        <v>0.88200000000000001</v>
+        <v>0.88178740113570797</v>
       </c>
       <c r="K37" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>5.4381068797813605E-3</v>
       </c>
       <c r="L37" s="1">
-        <v>0.89</v>
+        <v>0.89018724307367503</v>
       </c>
       <c r="M37" s="1">
-        <v>2.3E-2</v>
+        <v>2.2858794400907673E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2372,40 +2385,40 @@
         <v>42</v>
       </c>
       <c r="B38" s="1">
-        <v>0.624</v>
+        <v>0.6235144311516998</v>
       </c>
       <c r="C38" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0358181201145043E-3</v>
       </c>
       <c r="D38" s="1">
-        <v>0.61699999999999999</v>
+        <v>0.61745634489622703</v>
       </c>
       <c r="E38" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0991248994714828E-2</v>
       </c>
       <c r="F38" s="1">
-        <v>0.75800000000000001</v>
+        <v>0.75841703303914532</v>
       </c>
       <c r="G38" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>0.69532664585105675</v>
       </c>
       <c r="H38" s="1">
-        <v>0.69499999999999995</v>
+        <v>2.9180870975774958E-2</v>
       </c>
       <c r="I38" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.797686312263628E-3</v>
       </c>
       <c r="J38" s="1">
-        <v>0.871</v>
+        <v>0.87063664733046364</v>
       </c>
       <c r="K38" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.127281238349074E-3</v>
       </c>
       <c r="L38" s="1">
-        <v>0.86</v>
+        <v>0.86033173812146169</v>
       </c>
       <c r="M38" s="1">
-        <v>1.4E-2</v>
+        <v>1.39411905887459E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2413,40 +2426,40 @@
         <v>44</v>
       </c>
       <c r="B39" s="1">
-        <v>0.60899999999999999</v>
+        <v>0.60879000538757788</v>
       </c>
       <c r="C39" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2677623655129672E-2</v>
       </c>
       <c r="D39" s="1">
-        <v>0.60799999999999998</v>
+        <v>0.60789997412377395</v>
       </c>
       <c r="E39" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5274023900598654E-2</v>
       </c>
       <c r="F39" s="1">
-        <v>0.73499999999999999</v>
+        <v>0.73509383014485541</v>
       </c>
       <c r="G39" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>0.68917591402954004</v>
       </c>
       <c r="H39" s="1">
-        <v>0.68899999999999995</v>
+        <v>4.5989849696458168E-2</v>
       </c>
       <c r="I39" s="1">
-        <v>1.4E-2</v>
+        <v>1.3747889430755247E-2</v>
       </c>
       <c r="J39" s="1">
-        <v>0.87</v>
+        <v>0.86968277579159958</v>
       </c>
       <c r="K39" s="1">
-        <v>1.6E-2</v>
+        <v>1.5746675886153114E-2</v>
       </c>
       <c r="L39" s="1">
-        <v>0.84099999999999997</v>
+        <v>0.84088556024903272</v>
       </c>
       <c r="M39" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>9.371956319611182E-3</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2454,40 +2467,40 @@
         <v>46</v>
       </c>
       <c r="B40" s="1">
-        <v>0.626</v>
+        <v>0.6257479485406866</v>
       </c>
       <c r="C40" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>5.6511495758515837E-3</v>
       </c>
       <c r="D40" s="1">
-        <v>0.64800000000000002</v>
+        <v>0.64844661175010831</v>
       </c>
       <c r="E40" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8715345560473157E-2</v>
       </c>
       <c r="F40" s="1">
-        <v>0.753</v>
+        <v>0.75337385903316845</v>
       </c>
       <c r="G40" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.66827394723345235</v>
       </c>
       <c r="H40" s="1">
-        <v>0.66800000000000004</v>
+        <v>2.6918638517977904E-3</v>
       </c>
       <c r="I40" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2992886836330849E-2</v>
       </c>
       <c r="J40" s="1">
-        <v>0.85199999999999998</v>
+        <v>0.85218338310455888</v>
       </c>
       <c r="K40" s="1">
-        <v>0.01</v>
+        <v>1.015209474237177E-2</v>
       </c>
       <c r="L40" s="1">
-        <v>0.82</v>
+        <v>0.82007195173492997</v>
       </c>
       <c r="M40" s="1">
-        <v>1.6E-2</v>
+        <v>1.5525436636281214E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2495,40 +2508,40 @@
         <v>48</v>
       </c>
       <c r="B41" s="1">
-        <v>0.623</v>
+        <v>0.62278983657053499</v>
       </c>
       <c r="C41" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.4756832522548258E-3</v>
       </c>
       <c r="D41" s="1">
-        <v>0.66</v>
+        <v>0.65999139088019187</v>
       </c>
       <c r="E41" s="1">
-        <v>3.1E-2</v>
+        <v>3.0671297595889269E-2</v>
       </c>
       <c r="F41" s="1">
-        <v>0.78500000000000003</v>
+        <v>0.78460514749913512</v>
       </c>
       <c r="G41" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.68188533966395193</v>
       </c>
       <c r="H41" s="1">
-        <v>0.68200000000000005</v>
+        <v>1.2969564715744989E-2</v>
       </c>
       <c r="I41" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>9.4117305462234329E-3</v>
       </c>
       <c r="J41" s="1">
-        <v>0.84299999999999997</v>
+        <v>0.84258977121512624</v>
       </c>
       <c r="K41" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.5904156274317954E-3</v>
       </c>
       <c r="L41" s="1">
-        <v>0.82799999999999996</v>
+        <v>0.82835768020335276</v>
       </c>
       <c r="M41" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.9807199455062712E-3</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2536,40 +2549,40 @@
         <v>50</v>
       </c>
       <c r="B42" s="1">
-        <v>0.625</v>
+        <v>0.62477555033676102</v>
       </c>
       <c r="C42" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.0586608005588648E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>0.66600000000000004</v>
+        <v>0.66598801298541721</v>
       </c>
       <c r="E42" s="1">
-        <v>0.03</v>
+        <v>3.0473216927621682E-2</v>
       </c>
       <c r="F42" s="1">
-        <v>0.79500000000000004</v>
+        <v>0.79549035505441668</v>
       </c>
       <c r="G42" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.69839454352038854</v>
       </c>
       <c r="H42" s="1">
-        <v>0.69799999999999995</v>
+        <v>1.2741752728321487E-2</v>
       </c>
       <c r="I42" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1779278937516331E-2</v>
       </c>
       <c r="J42" s="1">
-        <v>0.84799999999999998</v>
+        <v>0.84793312486650618</v>
       </c>
       <c r="K42" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9037702575935762E-3</v>
       </c>
       <c r="L42" s="1">
-        <v>0.82299999999999995</v>
+        <v>0.82346508912926397</v>
       </c>
       <c r="M42" s="1">
-        <v>1.6E-2</v>
+        <v>1.6351498286758432E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2577,40 +2590,40 @@
         <v>52</v>
       </c>
       <c r="B43" s="1">
-        <v>0.627</v>
+        <v>0.62718448146605088</v>
       </c>
       <c r="C43" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.2380356577370916E-3</v>
       </c>
       <c r="D43" s="1">
-        <v>0.64900000000000002</v>
+        <v>0.64919340031149719</v>
       </c>
       <c r="E43" s="1">
-        <v>1.6E-2</v>
+        <v>1.6425908805006609E-2</v>
       </c>
       <c r="F43" s="1">
-        <v>0.81499999999999995</v>
+        <v>0.81470492139025874</v>
       </c>
       <c r="G43" s="1">
-        <v>0.01</v>
+        <v>0.73095329095293815</v>
       </c>
       <c r="H43" s="1">
-        <v>0.73099999999999998</v>
+        <v>9.7888468063692946E-3</v>
       </c>
       <c r="I43" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.0621435225124744E-2</v>
       </c>
       <c r="J43" s="1">
-        <v>0.85299999999999998</v>
+        <v>0.85326542358595781</v>
       </c>
       <c r="K43" s="1">
-        <v>2E-3</v>
+        <v>1.7170446915979239E-3</v>
       </c>
       <c r="L43" s="1">
-        <v>0.82799999999999996</v>
+        <v>0.82804320139017573</v>
       </c>
       <c r="M43" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.4858892185164939E-3</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2618,40 +2631,40 @@
         <v>54</v>
       </c>
       <c r="B44" s="1">
-        <v>0.61799999999999999</v>
+        <v>0.61750828758198839</v>
       </c>
       <c r="C44" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.4190675240119576E-3</v>
       </c>
       <c r="D44" s="1">
-        <v>0.625</v>
+        <v>0.62455949590290372</v>
       </c>
       <c r="E44" s="1">
-        <v>1.4E-2</v>
+        <v>1.4115230887735751E-2</v>
       </c>
       <c r="F44" s="1">
-        <v>0.81200000000000006</v>
+        <v>0.81217260524881851</v>
       </c>
       <c r="G44" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0.74001295310123405</v>
       </c>
       <c r="H44" s="1">
-        <v>0.74</v>
+        <v>5.877489508506065E-3</v>
       </c>
       <c r="I44" s="1">
-        <v>1.4E-2</v>
+        <v>1.3665338652710154E-2</v>
       </c>
       <c r="J44" s="1">
-        <v>0.84499999999999997</v>
+        <v>0.84503903405219238</v>
       </c>
       <c r="K44" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.6867888078473732E-3</v>
       </c>
       <c r="L44" s="1">
-        <v>0.82</v>
+        <v>0.82021986977720651</v>
       </c>
       <c r="M44" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>9.3666107781422338E-3</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2659,40 +2672,40 @@
         <v>56</v>
       </c>
       <c r="B45" s="1">
-        <v>0.626</v>
+        <v>0.62640809929688313</v>
       </c>
       <c r="C45" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3230905114562645E-2</v>
       </c>
       <c r="D45" s="1">
-        <v>0.63600000000000001</v>
+        <v>0.63631413797964731</v>
       </c>
       <c r="E45" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.3314675075723448E-3</v>
       </c>
       <c r="F45" s="1">
-        <v>0.83799999999999997</v>
+        <v>0.83847222846682401</v>
       </c>
       <c r="G45" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.76170283390385729</v>
       </c>
       <c r="H45" s="1">
-        <v>0.76200000000000001</v>
+        <v>7.5208063876579662E-3</v>
       </c>
       <c r="I45" s="1">
-        <v>2.3E-2</v>
+        <v>2.2844555139906055E-2</v>
       </c>
       <c r="J45" s="1">
-        <v>0.84299999999999997</v>
+        <v>0.84270452149046948</v>
       </c>
       <c r="K45" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5064479276284935E-2</v>
       </c>
       <c r="L45" s="1">
-        <v>0.80600000000000005</v>
+        <v>0.80630685201944852</v>
       </c>
       <c r="M45" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7747595582158528E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -2700,40 +2713,40 @@
         <v>58</v>
       </c>
       <c r="B46" s="1">
-        <v>0.63500000000000001</v>
+        <v>0.63464316855889991</v>
       </c>
       <c r="C46" s="1">
-        <v>2.7E-2</v>
+        <v>2.6624954760407916E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.66400000000000003</v>
+        <v>0.66422114911392949</v>
       </c>
       <c r="E46" s="1">
-        <v>2.7E-2</v>
+        <v>2.7274665125143375E-2</v>
       </c>
       <c r="F46" s="1">
-        <v>0.9</v>
+        <v>0.90032830965523836</v>
       </c>
       <c r="G46" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.79271017475253558</v>
       </c>
       <c r="H46" s="1">
-        <v>0.79300000000000004</v>
+        <v>5.4099899263767648E-3</v>
       </c>
       <c r="I46" s="1">
-        <v>2.7E-2</v>
+        <v>2.6977781603224608E-2</v>
       </c>
       <c r="J46" s="1">
-        <v>0.82499999999999996</v>
+        <v>0.82516347924148692</v>
       </c>
       <c r="K46" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8089181145231486E-2</v>
       </c>
       <c r="L46" s="1">
-        <v>0.79700000000000004</v>
+        <v>0.79740441155507791</v>
       </c>
       <c r="M46" s="1">
-        <v>1.2E-2</v>
+        <v>1.1676696187037617E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -2741,40 +2754,40 @@
         <v>60</v>
       </c>
       <c r="B47" s="1">
-        <v>0.63500000000000001</v>
+        <v>0.63464316855889991</v>
       </c>
       <c r="C47" s="1">
-        <v>2.7E-2</v>
+        <v>2.6624954760407916E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>0.66400000000000003</v>
+        <v>0.66422114911392949</v>
       </c>
       <c r="E47" s="1">
-        <v>2.7E-2</v>
+        <v>2.7274665125143375E-2</v>
       </c>
       <c r="F47" s="1">
-        <v>0.9</v>
+        <v>0.90032830965523836</v>
       </c>
       <c r="G47" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.79271017475253558</v>
       </c>
       <c r="H47" s="1">
-        <v>0.79300000000000004</v>
+        <v>5.4099899263767648E-3</v>
       </c>
       <c r="I47" s="1">
-        <v>2.7E-2</v>
+        <v>2.6977781603224608E-2</v>
       </c>
       <c r="J47" s="1">
-        <v>0.86099999999999999</v>
+        <v>0.86117297715448837</v>
       </c>
       <c r="K47" s="1">
-        <v>3.1E-2</v>
+        <v>3.0631004883119779E-2</v>
       </c>
       <c r="L47" s="1">
-        <v>0.82099999999999995</v>
+        <v>0.82083815948890748</v>
       </c>
       <c r="M47" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.098813922626843E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2782,28 +2795,28 @@
         <v>62</v>
       </c>
       <c r="B48" s="1">
-        <v>0.61699999999999999</v>
+        <v>0.61730196274667914</v>
       </c>
       <c r="C48" s="1">
-        <v>1.9E-2</v>
+        <v>1.8575551432441578E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>0.64600000000000002</v>
+        <v>0.64611076406236867</v>
       </c>
       <c r="E48" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7521534724434697E-2</v>
       </c>
       <c r="F48" s="1">
-        <v>0.86199999999999999</v>
+        <v>0.86244412210148502</v>
       </c>
       <c r="G48" s="1">
-        <v>2.4E-2</v>
+        <v>2.4005833813454114E-2</v>
       </c>
       <c r="H48" s="1">
-        <v>0.77100000000000002</v>
+        <v>0.77068840074544109</v>
       </c>
       <c r="I48" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>5.8616285469731905E-3</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2815,28 +2828,28 @@
         <v>64</v>
       </c>
       <c r="B49" s="1">
-        <v>0.63900000000000001</v>
+        <v>0.63928635782534715</v>
       </c>
       <c r="C49" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.4057503197994916E-3</v>
       </c>
       <c r="D49" s="1">
-        <v>0.61499999999999999</v>
+        <v>0.615489068923738</v>
       </c>
       <c r="E49" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.8034086077983468E-3</v>
       </c>
       <c r="F49" s="1">
-        <v>0.92800000000000005</v>
+        <v>0.92807993729081384</v>
       </c>
       <c r="G49" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>4.6246465505579357E-2</v>
       </c>
       <c r="H49" s="1">
-        <v>0.80900000000000005</v>
+        <v>0.80885859447864972</v>
       </c>
       <c r="I49" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.1061228382953311E-2</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2848,28 +2861,28 @@
         <v>66</v>
       </c>
       <c r="B50" s="1">
-        <v>0.64</v>
+        <v>0.63989964391599763</v>
       </c>
       <c r="C50" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8069435806577709E-2</v>
       </c>
       <c r="D50" s="1">
-        <v>0.626</v>
+        <v>0.62623530772212654</v>
       </c>
       <c r="E50" s="1">
-        <v>0.02</v>
+        <v>1.9538846533428331E-2</v>
       </c>
       <c r="F50" s="1">
-        <v>0.88700000000000001</v>
+        <v>0.88707233202938773</v>
       </c>
       <c r="G50" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>2.913632458797507E-2</v>
       </c>
       <c r="H50" s="1">
-        <v>0.89300000000000002</v>
+        <v>0.89312051170869822</v>
       </c>
       <c r="I50" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8826783591596822E-2</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2881,28 +2894,28 @@
         <v>68</v>
       </c>
       <c r="B51" s="1">
-        <v>0.64</v>
+        <v>0.63989964391599763</v>
       </c>
       <c r="C51" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8069435806577709E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>0.626</v>
+        <v>0.62623530772212654</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02</v>
+        <v>1.9538846533428331E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>0.82599999999999996</v>
+        <v>0.82578309086727197</v>
       </c>
       <c r="G51" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3437920545851411E-2</v>
       </c>
       <c r="H51" s="1">
-        <v>0.84499999999999997</v>
+        <v>0.84474625712608775</v>
       </c>
       <c r="I51" s="1">
-        <v>1.9E-2</v>
+        <v>1.9329510474862553E-2</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2914,28 +2927,28 @@
         <v>70</v>
       </c>
       <c r="B52" s="1">
-        <v>0.64800000000000002</v>
+        <v>0.64763663300265395</v>
       </c>
       <c r="C52" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5855974242931071E-2</v>
       </c>
       <c r="D52" s="1">
-        <v>0.623</v>
+        <v>0.62319223520817535</v>
       </c>
       <c r="E52" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4744487898903808E-2</v>
       </c>
       <c r="F52" s="1">
-        <v>0.86299999999999999</v>
+        <v>0.86316873918963744</v>
       </c>
       <c r="G52" s="1">
-        <v>0.01</v>
+        <v>1.0029413314350619E-2</v>
       </c>
       <c r="H52" s="1">
-        <v>0.80500000000000005</v>
+        <v>0.80511130141694975</v>
       </c>
       <c r="I52" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5452118702579036E-2</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2947,28 +2960,28 @@
         <v>72</v>
       </c>
       <c r="B53" s="1">
-        <v>0.65800000000000003</v>
+        <v>0.65829161099062894</v>
       </c>
       <c r="C53" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.2111360345837508E-2</v>
       </c>
       <c r="D53" s="1">
-        <v>0.66500000000000004</v>
+        <v>0.66459292677190751</v>
       </c>
       <c r="E53" s="1">
-        <v>2.3E-2</v>
+        <v>2.3430014740938601E-2</v>
       </c>
       <c r="F53" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.91460410138268211</v>
       </c>
       <c r="G53" s="1">
-        <v>1.4E-2</v>
+        <v>1.4135775278578972E-2</v>
       </c>
       <c r="H53" s="1">
-        <v>0.76900000000000002</v>
+        <v>0.76889590215174497</v>
       </c>
       <c r="I53" s="1">
-        <v>0.02</v>
+        <v>1.9722152294666898E-2</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2980,28 +2993,28 @@
         <v>74</v>
       </c>
       <c r="B54" s="1">
-        <v>0.68300000000000005</v>
+        <v>0.6832500710001318</v>
       </c>
       <c r="C54" s="1">
-        <v>0.01</v>
+        <v>9.6613523457827564E-3</v>
       </c>
       <c r="D54" s="1">
-        <v>0.65900000000000003</v>
+        <v>0.65924996433079297</v>
       </c>
       <c r="E54" s="1">
-        <v>1.4E-2</v>
+        <v>1.3775287450052878E-2</v>
       </c>
       <c r="F54" s="1">
-        <v>0.90400000000000003</v>
+        <v>0.90429448583339511</v>
       </c>
       <c r="G54" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.101317914024815E-2</v>
       </c>
       <c r="H54" s="1">
-        <v>0.83099999999999996</v>
+        <v>0.83108005680106345</v>
       </c>
       <c r="I54" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3816827223930257E-2</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3013,28 +3026,28 @@
         <v>76</v>
       </c>
       <c r="B55" s="1">
-        <v>0.70499999999999996</v>
+        <v>0.70547700449786654</v>
       </c>
       <c r="C55" s="1">
-        <v>0.01</v>
+        <v>1.0278854944299087E-2</v>
       </c>
       <c r="D55" s="1">
-        <v>0.69</v>
+        <v>0.69030582976425015</v>
       </c>
       <c r="E55" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4241213686096945E-3</v>
       </c>
       <c r="F55" s="1">
-        <v>0.86799999999999999</v>
+        <v>0.86795910118828878</v>
       </c>
       <c r="G55" s="1">
-        <v>1.2E-2</v>
+        <v>1.1696112034475256E-2</v>
       </c>
       <c r="H55" s="1">
-        <v>0.81799999999999995</v>
+        <v>0.81826632774064656</v>
       </c>
       <c r="I55" s="1">
-        <v>1.9E-2</v>
+        <v>1.8717245670444683E-2</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3046,28 +3059,28 @@
         <v>78</v>
       </c>
       <c r="B56" s="1">
-        <v>0.70199999999999996</v>
+        <v>0.7024444677289039</v>
       </c>
       <c r="C56" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6899297221446719E-2</v>
       </c>
       <c r="D56" s="1">
-        <v>0.69099999999999995</v>
+        <v>0.69069862689567374</v>
       </c>
       <c r="E56" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7563159567510193E-2</v>
       </c>
       <c r="F56" s="1">
-        <v>0.86299999999999999</v>
+        <v>0.8631643787279929</v>
       </c>
       <c r="G56" s="1">
-        <v>1.2E-2</v>
+        <v>1.1730995111259935E-2</v>
       </c>
       <c r="H56" s="1">
-        <v>0.80300000000000005</v>
+        <v>0.80329549926935195</v>
       </c>
       <c r="I56" s="1">
-        <v>2.4E-2</v>
+        <v>2.3528045837547321E-2</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3079,28 +3092,28 @@
         <v>80</v>
       </c>
       <c r="B57" s="1">
-        <v>0.70899999999999996</v>
+        <v>0.70911959846331707</v>
       </c>
       <c r="C57" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6166525702651235E-2</v>
       </c>
       <c r="D57" s="1">
-        <v>0.68500000000000005</v>
+        <v>0.68530246152596641</v>
       </c>
       <c r="E57" s="1">
-        <v>1.6E-2</v>
+        <v>1.5594473074715853E-2</v>
       </c>
       <c r="F57" s="1">
-        <v>0.80500000000000005</v>
+        <v>0.80539241085537894</v>
       </c>
       <c r="G57" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3963318142897249E-2</v>
       </c>
       <c r="H57" s="1">
-        <v>0.82099999999999995</v>
+        <v>0.82109275662394454</v>
       </c>
       <c r="I57" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0817163733218329E-2</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3112,16 +3125,16 @@
         <v>82</v>
       </c>
       <c r="B58" s="1">
-        <v>0.74399999999999999</v>
+        <v>0.74355591076735728</v>
       </c>
       <c r="C58" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6109551967506639E-2</v>
       </c>
       <c r="D58" s="1">
-        <v>0.70399999999999996</v>
+        <v>0.70365295029131703</v>
       </c>
       <c r="E58" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3487196811450422E-2</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3137,16 +3150,16 @@
         <v>84</v>
       </c>
       <c r="B59" s="1">
-        <v>0.78600000000000003</v>
+        <v>0.78644899439505733</v>
       </c>
       <c r="C59" s="1">
-        <v>0.02</v>
+        <v>1.9745973514378904E-2</v>
       </c>
       <c r="D59" s="1">
-        <v>0.71799999999999997</v>
+        <v>0.71751450866609146</v>
       </c>
       <c r="E59" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4891406904200696E-2</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3162,16 +3175,16 @@
         <v>86</v>
       </c>
       <c r="B60" s="1">
-        <v>0.83599999999999997</v>
+        <v>0.83636296080642536</v>
       </c>
       <c r="C60" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7146899632040483E-2</v>
       </c>
       <c r="D60" s="1">
-        <v>0.77200000000000002</v>
+        <v>0.77189036130487976</v>
       </c>
       <c r="E60" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6790112066370044E-2</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3187,16 +3200,16 @@
         <v>88</v>
       </c>
       <c r="B61" s="1">
-        <v>0.84</v>
+        <v>0.84000288750161956</v>
       </c>
       <c r="C61" s="1">
-        <v>0.01</v>
+        <v>1.0149177856858078E-2</v>
       </c>
       <c r="D61" s="1">
-        <v>0.79800000000000004</v>
+        <v>0.79834342049037765</v>
       </c>
       <c r="E61" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.5012502882019997E-3</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3212,16 +3225,16 @@
         <v>90</v>
       </c>
       <c r="B62" s="1">
-        <v>0.83899999999999997</v>
+        <v>0.83915047068112569</v>
       </c>
       <c r="C62" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3809094315829742E-2</v>
       </c>
       <c r="D62" s="1">
-        <v>0.78500000000000003</v>
+        <v>0.78483272816893468</v>
       </c>
       <c r="E62" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.1483171431655111E-2</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3237,16 +3250,16 @@
         <v>92</v>
       </c>
       <c r="B63" s="1">
-        <v>0.85599999999999998</v>
+        <v>0.8555733834542858</v>
       </c>
       <c r="C63" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>5.6323354535038742E-2</v>
       </c>
       <c r="D63" s="1">
-        <v>0.77400000000000002</v>
+        <v>0.77421686487168129</v>
       </c>
       <c r="E63" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2870949579926556E-2</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3262,16 +3275,16 @@
         <v>94</v>
       </c>
       <c r="B64" s="1">
-        <v>0.877</v>
+        <v>0.87684699145751521</v>
       </c>
       <c r="C64" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>8.169755299222578E-2</v>
       </c>
       <c r="D64" s="1">
-        <v>0.78200000000000003</v>
+        <v>0.78173816519830819</v>
       </c>
       <c r="E64" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.83134686238584E-3</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3287,16 +3300,16 @@
         <v>96</v>
       </c>
       <c r="B65" s="1">
-        <v>0.86499999999999999</v>
+        <v>0.86468297250419612</v>
       </c>
       <c r="C65" s="1">
-        <v>6.3E-2</v>
+        <v>6.3177638652994472E-2</v>
       </c>
       <c r="D65" s="1">
-        <v>0.79400000000000004</v>
+        <v>0.79366202995215041</v>
       </c>
       <c r="E65" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.9659317717051007E-3</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3312,16 +3325,16 @@
         <v>98</v>
       </c>
       <c r="B66" s="1">
-        <v>0.84399999999999997</v>
+        <v>0.84357639806634044</v>
       </c>
       <c r="C66" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4514055911067884E-2</v>
       </c>
       <c r="D66" s="1">
-        <v>0.79700000000000004</v>
+        <v>0.79711967992056998</v>
       </c>
       <c r="E66" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1869209846241602E-3</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3337,16 +3350,16 @@
         <v>100</v>
       </c>
       <c r="B67" s="1">
-        <v>0.80600000000000005</v>
+        <v>0.80595965619263144</v>
       </c>
       <c r="C67" s="1">
-        <v>3.9E-2</v>
+        <v>3.9416060707480327E-2</v>
       </c>
       <c r="D67" s="1">
-        <v>0.78100000000000003</v>
+        <v>0.78114144234114002</v>
       </c>
       <c r="E67" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3480510713849038E-2</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3362,16 +3375,16 @@
         <v>102</v>
       </c>
       <c r="B68" s="1">
-        <v>0.82499999999999996</v>
+        <v>0.82464775482269703</v>
       </c>
       <c r="C68" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8251500028690013E-3</v>
       </c>
       <c r="D68" s="1">
-        <v>0.80100000000000005</v>
+        <v>0.8005695096867238</v>
       </c>
       <c r="E68" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.9262083834270042E-3</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3393,11 +3406,2525 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4064DB6-D066-DD43-A18E-9B7EC0A77A89}">
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>-30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.46091674309284447</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.7890247255172013E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.44263602699310289</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.1967512392274206E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.54104794357840591</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.7990394921107457E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.49810639269453527</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5.1714937213177228E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.39245961378674665</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.7095353003031578E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.40815060332991959</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.0737076873284897E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.26990047529039923</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2.196271045519713E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.29001719857173847</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.7214070046288102E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>-28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.46567007517154324</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.3891921341536852E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.45661934354055944</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.5626709386759082E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.50655115211361146</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.6227149494021192E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.45614372799540637</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.8166442239163886E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.33313829874778023</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.8670571331181629E-3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.36462977796744567</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.9719962726413538E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.24431893203480856</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.8059897623646428E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.26449971900374619</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2.1254614297158414E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>-26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.4625118554320331</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.3767831630139454E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.47257358864899079</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.1160334556916684E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.52477522013021505</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.0315704612275605E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.48037816973614694</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.4410308432025188E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.35469054498966734</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9.6013370460151602E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.33424140717181694</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.2861637480970866E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.25280123122557213</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.6426354333855357E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.26222035879279992</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.1650681061514611E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>-24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.46492869552693339</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.6631395463910256E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.45062569477165271</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.6300673152823835E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.52487105341614426</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.5991063668711721E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.48682375502381131</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.3173427543073947E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.38382987253782264</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.1244317829909747E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.36263138345932444</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.283291062284513E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.26176691000924918</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.3619299708534023E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.25972875128536571</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.7010796970796764E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>-22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.4441082546721935</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.4634518738348709E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.42406419514224858</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.7063542489245248E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.51946166767110646</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.748395579800632E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.48904325946901617</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.4575228913488912E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.39830092985641707</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9.8891373967476912E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.39414221463445687</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.5355023546420836E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.27618039059176303</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.5111219393321483E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.27004753536682724</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.1380126791163278E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>-20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.46384724826029555</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.4487291163901513E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.4219482273968036</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.5870472817011157E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.54526171630278308</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.2986493326994177E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.4788370308266035</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.4372571950341499E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.40143294511892691</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.6480402829296577E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.41502085966283553</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.1954400989664486E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.28091058474208808</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.1871409713453015E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.29420249703392054</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.0136248713391992E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>-18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.46411799439817747</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.5216209548272753E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.43595837989163377</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0921887155660387E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.5313231010575078</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.1788975871351743E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.4768152392651453</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.8646226815886648E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.37185611190575329</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.7169788600431016E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.38100610222613418</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.8740454841148089E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.25650853478460411</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.1616013395920508E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.26711251458909091</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.731860444881882E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>-16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.48203804384664739</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.0793212201849661E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.45808725205548351</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.7233594739426324E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.51550737831718518</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8.5730237344026784E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.48189043788875646</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.6842521943380521E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.40942768671780483</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.4776595057643682E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.40945260589057275</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.1001389894217834E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.25582576862405304</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.1053221223144855E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.24815398014371781</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>6.5903429443300993E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>-14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.45488915715292744</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.2152535531973454E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.48309041914095729</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.1159295270233561E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.52386559757174311</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.3207841296888364E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.5183499179912785</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.7255187594791619E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.39832260006029219</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6.6786245309872387E-3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.4036100738132431</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.8645275765279756E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.28271669660152376</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.4561587197521942E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.25665208151366126</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3.1692631389294724E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>-12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.4170784095296256</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.3423489076364247E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.47018724324068195</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.3576792599617074E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.48843049737069094</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.3585986857923572E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.53553915010258057</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.4792918532678496E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.35274047088499705</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.0965373184952292E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.36515431965003242</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.9440925286457397E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.2885070639532834</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.5276486797676582E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.26861598138697373</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.0169431732174796E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>-10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.40538714232402651</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.3635393022132326E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.43297939575491595</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.4463832041026144E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.52231198094809339</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.8838853469860823E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.5619482974175336</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4.4846666348941988E-3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.34735453975693997</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4.1355266750136574E-3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.34515503283884508</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.2027310574378535E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.27766954297204949</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.3493450268737384E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.28088529368706716</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.3231383913728479E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>-8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.45000195619595518</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.5386773617711917E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.44138614965218581</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.1200423835083127E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.53442558413377783</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.6133979109435429E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.55656776653337581</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8.1043176219477656E-3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.40752857615439475</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6.1892706139451163E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.39588799376510719</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2.1348440871131677E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.26703097493902805</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.24003463788569E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.27191382670183439</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.575197746485461E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>-6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.44709986566538845</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8.4460361537604944E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.45058211269837217</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.7617756621167553E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.50960955358482807</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.7730403941281749E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.53934209175612946</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8.9164199758249175E-3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.37059200898438283</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4.074100426654478E-3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.37570351069778085</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.858271472105087E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.27007332730614375</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.9925787305710561E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.26985664559352696</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1.4352439244647269E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>-4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.48363139148661216</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.1218937254038623E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.47967390061424103</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.7612027228391383E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.50244053074162942</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8.1027818745765898E-3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.52003790156201979</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.5522560202437422E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.37620069887186869</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.4510188498543233E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.39621851622726001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.033999931973917E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.25320006700996872</v>
+      </c>
+      <c r="O16" s="1">
+        <v>9.6522756428539507E-3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.26032712904264516</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.2789126177993888E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.46683203564793718</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.1333799393403711E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.45970883736961965</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0750364512185083E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.49036184549356432</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.3934765904717025E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.4983268336611093</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3.703771614575736E-3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.38350615641197283</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.242225073473459E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.40136221147485274</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.9032178212841699E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.25520827249363753</v>
+      </c>
+      <c r="O17" s="1">
+        <v>8.517207080563801E-3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.25459405123706902</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1.6499749014506224E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.40485153665532669</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.6228831547062599E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.42656492655688671</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.3501572874421419E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.48797623135809887</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.5623399864317863E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.50088757990950339</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.1287881243064768E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.38153025238100913</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.1146714348888542E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.34504738596385032</v>
+      </c>
+      <c r="M18" s="1">
+        <v>9.9190845748898665E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.2449457999970277</v>
+      </c>
+      <c r="O18" s="1">
+        <v>8.3698282131536919E-3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.24356207430487808</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.0307778675432941E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.497847269567119</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.9422924016872609E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.49170744267393829</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.3529625999634688E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.48966552686872356</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.1314576758876207E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.49397208682534011</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.3371174599590355E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.40811270767761149</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2.4719106469951256E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.39184865295662252</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.4146436400715976E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.25820462321474658</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.7939403297715251E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.24833720318081975</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>7.3091836779013951E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.57394704687668363</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.9280036118629112E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.56949458826555288</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.216986965623411E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.53604932734167576</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.447241221784144E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.52670605531966441</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.7233299283937626E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.41194132342106299</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.7539317090899325E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.37616878924055669</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.7819938369654802E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.29601876108748648</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.5201131590760088E-2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.29986765328946552</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>4.5352160341303625E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.69070690323907469</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0146687723541472E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.69852898497634686</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.3776211281861878E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.55217893120605099</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.3238851988056412E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.54200261221477697</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.8994082179988979E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.42195555635994025</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.4276882714280995E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.3979072563823845</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.3572882196040022E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.37313350237747089</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.7869900109087289E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.38964782998284408</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.499283547453171E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.80310802747796117</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0595631114764325E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.76925992862024151</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.8723502105175072E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.60179423977676061</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8.9443852530268399E-3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.54500903463848505</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3.1980509274268432E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.44298136063099497</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5.4980491298560882E-3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.42097329457391791</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.6237010019636787E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.39805395992283343</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.8798394451404632E-2</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.41772662527861582</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1.7576430767456394E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.94360913340559094</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8.5567057768960678E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.80732846496131605</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.6799354356007913E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.6651849280445985</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6.067918325313686E-3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.57519783824015924</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.9572819312053814E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.48157245455349412</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.758424723277523E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.48942653002481995</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3.4092837976159154E-2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.42225041908070926</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.4413186616252006E-2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.43533217944034108</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2.1542915332760072E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.94993655436158131</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.7536529134442921E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.87663471845735452</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.3045847496565529E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.67482325882371053</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.628153334635361E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.63091706667497882</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.9502847288708592E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.53226718907627923</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2.0928693292661834E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.56039836811539034</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.3804755683099501E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.4736759773759307</v>
+      </c>
+      <c r="O24" s="1">
+        <v>3.2170371025658215E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.47574280077878162</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1.529232131803558E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.95327464396866279</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.0826526374020054E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.95175815122658969</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.7166365266322214E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.656564686876979</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.1035699933012894E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.64938188959428178</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5.04873057308672E-3</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.57361878006527178</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2.1448089730522868E-2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.66384366726983801</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2.16131068910837E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.47051956821547097</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2.026600839518242E-2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.47818003856505475</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1.1882204551458723E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.93841492094179635</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.2131360636525246E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.97563657897800304</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.8211075087046665E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.66476789960071359</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.999183524550149E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.67751358161640951</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.8501139702475564E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.61825140954565461</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.7421498501275216E-2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.70084332112149939</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2.533683290100076E-2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.45916560702558323</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2.1404447186418915E-2</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.460777476058358</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1.19272877071384E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.92530233942242768</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.8894804827459375E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99642848259942751</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6.7071838572654524E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.6730287770616471</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.3748752587213236E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.67543653633896428</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.0448847423821066E-2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.69421018671783852</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3.9388681356817945E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.72421575350533673</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.8536235764111925E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.43825085404979691</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.4121312860112865E-2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.45635189692283018</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1.585022352474388E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.92211798642315257</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.0352084730953662E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.96218860627442526</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.2745050141212981E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.67639838415520404</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.6437417750477583E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.66205561542294644</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.2296257879995602E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.68410750547227572</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3.672397892124557E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.69839803703741454</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2.722490535131835E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.44413154389752413</v>
+      </c>
+      <c r="O28" s="1">
+        <v>9.1974263769435596E-3</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.46284293742196403</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1.7449041798362385E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.94547825403332508</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9.9260166964367348E-4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.90913081927592365</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.9723902579693411E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.6556848222078544</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.3292528424515895E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.62707498490811853</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.4280332074424671E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.65058019460801975</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.8330401331689929E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.68299090972559773</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.3804905588119962E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.47157969864937926</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.097860556897242E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.4749890490911251</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>6.1880941338391966E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.91744257081392433</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6.4220130271933932E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.8966743545271445</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.866809383231877E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.68264270741774213</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.3560841727550401E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.66991294677942337</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.4508960180074576E-2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.60698549043532346</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1.7430536527304707E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.64782867670680389</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.1214396870371212E-2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.486644598360914</v>
+      </c>
+      <c r="O30" s="1">
+        <v>9.9446548607783742E-4</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.4787581098342793</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3.7492478653476345E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.90524385530490925</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.4375682361347938E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.88400048460030378</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.2717419160010112E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.68207395711935526</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.9680081516693324E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.65250097371826321</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3.134890953631207E-3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.57210139141894889</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2.5129258519663366E-2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.61480646056138444</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2.9588305291388426E-2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.47620520849570075</v>
+      </c>
+      <c r="O31" s="1">
+        <v>3.87899398108003E-3</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.46736785414711401</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>4.3058227249020559E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.88451021064501145</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.1267700257355804E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.87656708934483529</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.9215427614018945E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.68994652388960187</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.4318416325991509E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.64718827351968988</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2.1372818543897741E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.62474723914516239</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3.7678490927806847E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.62365777592934701</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2.2214511769962211E-2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.45267058746380373</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.2230742344171899E-2</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.46621875817634262</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1.2783416523497166E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.89925023884289013</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.9262326647642532E-3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.93473901815915905</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4.2199178213366891E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.69033982504974212</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.1683730523335486E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.6658808266285976</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2.5007900620214643E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.65103826404908416</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2.024910094858173E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.61153890998577143</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1.5393145378374173E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.45448523672502256</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.3367433468650117E-2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.47771474243614503</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2.0198239092300733E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.86864762081117053</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.7424766455760386E-3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.91791957637428556</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.3988902008403862E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.69397932583839783</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.6064811439259813E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.65355704224690825</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1.3510228396557619E-2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.66363775735703057</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2.7942203651471008E-2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.61462836300249124</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1.1546465597060357E-2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.44746617302984548</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1.9650681744134181E-2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.46989093483966893</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1.9874989502674106E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.87645550949590512</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.6817226044801615E-3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.92740399575309418</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.2062548570421949E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.70796487660226148</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2.9174372638614644E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.67998739775358752</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4.7361947139014952E-3</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.63129901452865667</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2.5205431039760973E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.59922002451249601</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1.4910851331176542E-2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.4662343233804756</v>
+      </c>
+      <c r="O35" s="1">
+        <v>9.837017905532144E-3</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.47090125914629244</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>6.3576793204862658E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.88213097138370511</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.4003892589950811E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.94999100491112509</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.3291037576046045E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.70276898996573955</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2.093899291330362E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.64610701964136763</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.3167285472625367E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.62437481284314411</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3.1805991460253223E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.61739747062555794</v>
+      </c>
+      <c r="M36" s="1">
+        <v>2.9338056470418195E-2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.44542065244702372</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.2298094892453601E-2</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.45155498696366969</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>8.1474423625386289E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.89965235360008222</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.1022048115107467E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.93370838077809248</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.5372955329347118E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.69369312214539303</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.3619312763449179E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.64032019138003837</v>
+      </c>
+      <c r="I37" s="1">
+        <v>8.8071221397939044E-3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.63294759992955985</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.9001751181180724E-2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.62847432545413284</v>
+      </c>
+      <c r="M37" s="1">
+        <v>2.461549964699079E-2</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.43153620693768929</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1.2013137577052274E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.43632633156198325</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>7.5334739129771285E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.87232193694896176</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.7568300957691319E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.91920990323125118</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.3694245729014353E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.69035773100736397</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.4540529279789697E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.64333434511804033</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5.733644800107158E-3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.68663075900216841</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2.2608478226026688E-2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.66672365296790792</v>
+      </c>
+      <c r="M38" s="1">
+        <v>2.875381248830141E-2</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.40910627392511395</v>
+      </c>
+      <c r="O38" s="1">
+        <v>6.1698180687040569E-3</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.42334671515850197</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1.361901959420383E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.91199652097102923</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.813964945267523E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.95736883671342232</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.0749466970465903E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.67893927711724766</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.233226544908592E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.64853139675219684</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.780860978930543E-2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.64664575138700242</v>
+      </c>
+      <c r="K39" s="1">
+        <v>8.6847318559873064E-3</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.62122818578286221</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1.933345624180894E-2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.42104618342613742</v>
+      </c>
+      <c r="O39" s="1">
+        <v>4.3714433437314513E-3</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.43091388227776006</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1.0570930846373066E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.87987132890838426</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.4552575618613175E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.9425078245014219</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.2851201161716329E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.67504698805592367</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2.0877687520980952E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.6513976789588648</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5.0549410875168135E-3</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.65196465357025579</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1.9791626831443514E-2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.62785287986323624</v>
+      </c>
+      <c r="M40" s="1">
+        <v>8.7400695910390611E-3</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.445303286842617</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1.7251133837555492E-3</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.4472586121224571</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>5.4062961451568454E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.8973607020323292</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.7487418510380807E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.95136045769122501</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.8349071627799241E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.6826108571504963</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.8348295071757347E-2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.63493795643063999</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.134549331474918E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.62822351166340207</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.7384084917700816E-2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.6082365519679781</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2.3477204172980281E-2</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.43923609994799068</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1.811448479543717E-3</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.44245754185881259</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>6.2660969236193612E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.88288760582575376</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.3048115328198659E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.96795839469607226</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2.2443667300599171E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.68199523440256871</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3.2374938683323688E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.63171317210181244</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2.0087272279820715E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.64209556684343705</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1.1454510787884249E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.61246436759866019</v>
+      </c>
+      <c r="M42" s="1">
+        <v>2.0957794424138258E-2</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.42222917962771528</v>
+      </c>
+      <c r="O42" s="1">
+        <v>8.08317479897009E-3</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.42874026181835223</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>6.9537685749060333E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>50</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.89437707623686935</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3.9966990347270741E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.95035902059334132</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.7556948700830197E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.68298429062092036</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2.9611067817345772E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.611467614691943</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3.2331283225075405E-2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.65580075781843039</v>
+      </c>
+      <c r="K43" s="1">
+        <v>7.4500348492968381E-3</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.61745389670561035</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2.2230453873830526E-2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.38250321694053091</v>
+      </c>
+      <c r="O43" s="1">
+        <v>9.2231870968536595E-3</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.40101081499945418</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1.6030231838136021E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.8721358293702367</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.1374785225764619E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.94732433563900498</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.4416218454585331E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.67449718910535239</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2.8524932534353717E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.61403299724027238</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2.4679971740810255E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.69879840638182023</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.0127702490553664E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.64827112363917694</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1.6505316334188055E-2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.37173729116909576</v>
+      </c>
+      <c r="O44" s="1">
+        <v>7.0972049834403363E-3</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.38425531661575879</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1.1386757543675168E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.88887850766502796</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7.7782138178172019E-3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.953948919766615</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.9954567752957206E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.6891219662770256</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3.6801572379730071E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.60689727921405046</v>
+      </c>
+      <c r="I45" s="1">
+        <v>7.9108283187648391E-3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.73043036444269538</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1.0969029922167041E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.64775796039078759</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1.6146559717382773E-2</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.39937590406480244</v>
+      </c>
+      <c r="O45" s="1">
+        <v>8.4582578190210353E-3</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.40888473311627127</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>9.0015396731936027E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>56</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.8442274196402525</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.0656090836589119E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.97580964281780069</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.5305198702532989E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.71053244177321473</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2.5603927947421591E-2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.63817287330185746</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2.0069065533326848E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.76160602910490616</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1.0119939142424319E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.68722033117387282</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1.6390754987270127E-2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.37347427494232194</v>
+      </c>
+      <c r="O46" s="1">
+        <v>4.912008806101183E-3</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.3787164205463649</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>5.7519359357018412E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.8499579344704854</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3.5778572412965469E-2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.99736580927384288</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.6379535032525389E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.71846193145652881</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2.9461755420413231E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.6584325867987455</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2.1771540757093786E-2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.75622106994190752</v>
+      </c>
+      <c r="K47" s="1">
+        <v>8.4086230677163382E-3</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.69101471506502199</v>
+      </c>
+      <c r="M47" s="1">
+        <v>8.800931168116673E-3</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.3566707639323477</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1.0092973015947977E-2</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.37221458692529358</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1.3333262545204127E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.81199192459973124</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4.1669088087724446E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.0133415900938563</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.8751665391181425E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.70841120462985263</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.2436090693174527E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.66408400792584799</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3.0587354594793222E-2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.74638049633386983</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.709118761349181E-2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.68928203861910597</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1.0989471541152006E-2</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.3677483050698524</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.1074325628654543E-2</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.38557371341170987</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1.5082761530100316E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DE65CE-BB53-DA4D-BC2E-F6D6ED98AB0C}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
